--- a/template.xlsx
+++ b/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sheila Azhar Almufarida\applications\prediksi-stunting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9430E7E-6F91-4D22-8D8D-5EB0D3671DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E66BE5D-276A-460C-880F-3399D99F9C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5FE5457E-A9D2-4F46-9129-CED153F07C38}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>pidlink</t>
   </si>
@@ -74,24 +74,9 @@
     <t>pendidikan_ayah</t>
   </si>
   <si>
-    <t>kelas_tertinggi_ygselesai_ayah</t>
-  </si>
-  <si>
     <t>tinggi_badan_ayah</t>
   </si>
   <si>
-    <t>apaka_pernah_punya_kebiasaan_mengisap_tembakau</t>
-  </si>
-  <si>
-    <t>apakah_menghisap_tembakau_pakai_pipa</t>
-  </si>
-  <si>
-    <t>apakah_menghisap_tembakau_linting_sendiri</t>
-  </si>
-  <si>
-    <t>apakah_menghisap_rokokcerutu</t>
-  </si>
-  <si>
     <t>apakah_kebiasaan_merokok_sampai_sekarang</t>
   </si>
   <si>
@@ -113,9 +98,6 @@
     <t>pendidikan_ibu</t>
   </si>
   <si>
-    <t>kelas_tertinggi_ygselesai_ibu</t>
-  </si>
-  <si>
     <t>tinggi_badan_ibu</t>
   </si>
   <si>
@@ -171,9 +153,6 @@
   </si>
   <si>
     <t>tempat_pemeriksaan_kehamilan</t>
-  </si>
-  <si>
-    <t>apakah_minum_tabletfe</t>
   </si>
   <si>
     <t>jumlah_fe_diminum_selama_hamil</t>
@@ -213,8 +192,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -230,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -238,12 +225,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,194 +581,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202FBECC-5D8E-4E6C-A153-EBE7EA764240}">
-  <dimension ref="A1:BG1"/>
+  <dimension ref="A1:AY1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:51" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>